--- a/stripped/S60020.mes.bin.xlsx
+++ b/stripped/S60020.mes.bin.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E26FF3E-D52C-4EDC-8C8E-7BF53C463389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4CE7D8-6CFA-4F0C-BC52-D18A9E82292A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16275" yWindow="6510" windowWidth="33855" windowHeight="23535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33810" yWindow="0" windowWidth="33900" windowHeight="21090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S60020.mes.bin" sheetId="1" r:id="rId1"/>

--- a/stripped/S60020.mes.bin.xlsx
+++ b/stripped/S60020.mes.bin.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4CE7D8-6CFA-4F0C-BC52-D18A9E82292A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A073AA-FD81-454A-A37C-30A357BACFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33810" yWindow="0" windowWidth="33900" windowHeight="21090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5460" yWindow="5460" windowWidth="50850" windowHeight="21795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S60020.mes.bin" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="132">
   <si>
     <t>Status</t>
   </si>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>123</t>
+  </si>
+  <si>
+    <t>^Oh?^</t>
   </si>
   <si>
     <t>125</t>
@@ -820,7 +823,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1768,7 +1773,9 @@
         <v>10</v>
       </c>
       <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
+      <c r="F63" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
@@ -1777,7 +1784,7 @@
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -1791,7 +1798,7 @@
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4" t="s">
@@ -1807,7 +1814,7 @@
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -1821,7 +1828,7 @@
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -1835,7 +1842,7 @@
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2" t="s">
@@ -1851,7 +1858,7 @@
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -1865,7 +1872,7 @@
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2" t="s">
@@ -1881,7 +1888,7 @@
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4" t="s">
@@ -1897,7 +1904,7 @@
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -1911,7 +1918,7 @@
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -1925,7 +1932,7 @@
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
@@ -1941,7 +1948,7 @@
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -1955,7 +1962,7 @@
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -1969,7 +1976,7 @@
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -1983,7 +1990,7 @@
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -1997,7 +2004,7 @@
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4" t="s">
@@ -2013,7 +2020,7 @@
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -2027,7 +2034,7 @@
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4" t="s">
@@ -2043,7 +2050,7 @@
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2" t="s">
@@ -2059,7 +2066,7 @@
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4" t="s">
@@ -2075,7 +2082,7 @@
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -2089,7 +2096,7 @@
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4" t="s">
@@ -2105,7 +2112,7 @@
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -2119,7 +2126,7 @@
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4" t="s">
@@ -2135,7 +2142,7 @@
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2" t="s">
@@ -2151,7 +2158,7 @@
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -2165,13 +2172,13 @@
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
@@ -2181,7 +2188,7 @@
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -2195,7 +2202,7 @@
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -2209,7 +2216,7 @@
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4" t="s">
@@ -2225,7 +2232,7 @@
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2" t="s">
@@ -2241,7 +2248,7 @@
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -2255,7 +2262,7 @@
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -2269,7 +2276,7 @@
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
@@ -2283,7 +2290,7 @@
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -2297,7 +2304,7 @@
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -2311,7 +2318,7 @@
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -2325,7 +2332,7 @@
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
@@ -2339,7 +2346,7 @@
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2" t="s">
@@ -2355,7 +2362,7 @@
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
@@ -2369,7 +2376,7 @@
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -2383,7 +2390,7 @@
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
@@ -2397,7 +2404,7 @@
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -2411,7 +2418,7 @@
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
@@ -2425,7 +2432,7 @@
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -2439,7 +2446,7 @@
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
@@ -2453,7 +2460,7 @@
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2" t="s">
@@ -2469,7 +2476,7 @@
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
@@ -2483,7 +2490,7 @@
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -2497,7 +2504,7 @@
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4" t="s">
@@ -2513,13 +2520,13 @@
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
@@ -2529,7 +2536,7 @@
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
@@ -2543,7 +2550,7 @@
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -2557,7 +2564,7 @@
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
